--- a/SandlerTrainingSLN/Documents/Aug-Sept/ContactLoadTest.xlsx
+++ b/SandlerTrainingSLN/Documents/Aug-Sept/ContactLoadTest.xlsx
@@ -81,16 +81,16 @@
     <t>Knox</t>
   </si>
   <si>
-    <t>Persaud</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Andrew </t>
-  </si>
-  <si>
-    <t>+1 (403)686-9753</t>
-  </si>
-  <si>
-    <t>andrew.persaud@rci.rogers.com</t>
+    <t>Floreani</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Elvis </t>
+  </si>
+  <si>
+    <t>+1 (403) 209-6851</t>
+  </si>
+  <si>
+    <t>elvis@absoluteimaging.ca</t>
   </si>
 </sst>
 </file>
@@ -177,7 +177,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="4" applyFill="1"/>
@@ -187,6 +187,7 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="4" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
@@ -513,6 +514,9 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="11" max="11" width="10.140625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
@@ -539,7 +543,7 @@
       <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="5" t="s">
         <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
@@ -577,48 +581,48 @@
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A2" s="6"/>
-      <c r="B2" s="10">
-        <v>2</v>
-      </c>
-      <c r="C2" s="9" t="s">
+      <c r="A2" s="7"/>
+      <c r="B2" s="11">
+        <v>5</v>
+      </c>
+      <c r="C2" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F2" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="G2" s="8">
+      <c r="G2" s="9">
         <v>0</v>
       </c>
-      <c r="H2" s="10">
+      <c r="H2" s="11">
         <v>3</v>
       </c>
-      <c r="I2" s="6"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5"/>
-      <c r="L2" s="6"/>
-      <c r="M2" s="6"/>
-      <c r="N2" s="11">
-        <v>40871</v>
-      </c>
-      <c r="O2" s="7"/>
-      <c r="P2" s="10">
+      <c r="I2" s="7"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
+      <c r="N2" s="12">
+        <v>40692</v>
+      </c>
+      <c r="O2" s="8"/>
+      <c r="P2" s="11">
         <v>1</v>
       </c>
-      <c r="Q2" s="5"/>
-      <c r="R2" s="8" t="s">
+      <c r="Q2" s="7"/>
+      <c r="R2" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="S2" s="11">
-        <v>40871</v>
-      </c>
-      <c r="T2" s="7"/>
+      <c r="S2" s="12">
+        <v>40692</v>
+      </c>
+      <c r="T2" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
